--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H2">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N2">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O2">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P2">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q2">
-        <v>1.633241876754643</v>
+        <v>3.460381850344</v>
       </c>
       <c r="R2">
-        <v>1.633241876754643</v>
+        <v>31.143436653096</v>
       </c>
       <c r="S2">
-        <v>0.004375677266957139</v>
+        <v>0.006929810044725303</v>
       </c>
       <c r="T2">
-        <v>0.004375677266957139</v>
+        <v>0.006929810044725305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H3">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I3">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J3">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N3">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P3">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q3">
-        <v>33.61974579099935</v>
+        <v>37.22983614118333</v>
       </c>
       <c r="R3">
-        <v>33.61974579099935</v>
+        <v>335.06852527065</v>
       </c>
       <c r="S3">
-        <v>0.09007187451675509</v>
+        <v>0.07455700082030016</v>
       </c>
       <c r="T3">
-        <v>0.09007187451675509</v>
+        <v>0.07455700082030017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H4">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I4">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J4">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N4">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O4">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P4">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q4">
-        <v>0.08767677367297233</v>
+        <v>0.1560455739806666</v>
       </c>
       <c r="R4">
-        <v>0.08767677367297233</v>
+        <v>1.404410165826</v>
       </c>
       <c r="S4">
-        <v>0.0002348980092056537</v>
+        <v>0.0003124990919423097</v>
       </c>
       <c r="T4">
-        <v>0.0002348980092056537</v>
+        <v>0.0003124990919423097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H5">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I5">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J5">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N5">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O5">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P5">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q5">
-        <v>0.6584315870025433</v>
+        <v>0.7246398882453332</v>
       </c>
       <c r="R5">
-        <v>0.6584315870025433</v>
+        <v>6.521758994208</v>
       </c>
       <c r="S5">
-        <v>0.001764027832067618</v>
+        <v>0.001451174174859323</v>
       </c>
       <c r="T5">
-        <v>0.001764027832067618</v>
+        <v>0.001451174174859323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H6">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I6">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J6">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N6">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O6">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P6">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q6">
-        <v>0.3825556852447001</v>
+        <v>0.4509948140739999</v>
       </c>
       <c r="R6">
-        <v>0.3825556852447001</v>
+        <v>4.058953326666</v>
       </c>
       <c r="S6">
-        <v>0.001024918745407552</v>
+        <v>0.0009031686466562456</v>
       </c>
       <c r="T6">
-        <v>0.001024918745407552</v>
+        <v>0.0009031686466562458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H7">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I7">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J7">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.5123225038424</v>
+        <v>43.864011</v>
       </c>
       <c r="N7">
-        <v>32.5123225038424</v>
+        <v>131.592033</v>
       </c>
       <c r="O7">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="P7">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="Q7">
-        <v>17.54190507997329</v>
+        <v>25.922665492758</v>
       </c>
       <c r="R7">
-        <v>17.54190507997329</v>
+        <v>233.303989434822</v>
       </c>
       <c r="S7">
-        <v>0.04699715110788221</v>
+        <v>0.05191309961931233</v>
       </c>
       <c r="T7">
-        <v>0.04699715110788221</v>
+        <v>0.05191309961931234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H8">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I8">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J8">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N8">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O8">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P8">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q8">
-        <v>1.365819708059317</v>
+        <v>2.740950855845334</v>
       </c>
       <c r="R8">
-        <v>1.365819708059317</v>
+        <v>24.66855770260801</v>
       </c>
       <c r="S8">
-        <v>0.003659216881698291</v>
+        <v>0.005489067274771186</v>
       </c>
       <c r="T8">
-        <v>0.003659216881698291</v>
+        <v>0.005489067274771187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H9">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I9">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J9">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N9">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P9">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q9">
-        <v>28.11494857854993</v>
+        <v>29.48956376707778</v>
       </c>
       <c r="R9">
-        <v>28.11494857854993</v>
+        <v>265.4060739037</v>
       </c>
       <c r="S9">
-        <v>0.07532377359885138</v>
+        <v>0.05905622097380602</v>
       </c>
       <c r="T9">
-        <v>0.07532377359885138</v>
+        <v>0.05905622097380603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H10">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I10">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J10">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N10">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O10">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P10">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q10">
-        <v>0.07332083944574956</v>
+        <v>0.1236029051275556</v>
       </c>
       <c r="R10">
-        <v>0.07332083944574956</v>
+        <v>1.112426146148</v>
       </c>
       <c r="S10">
-        <v>0.0001964365076129981</v>
+        <v>0.0002475289406066598</v>
       </c>
       <c r="T10">
-        <v>0.0001964365076129981</v>
+        <v>0.0002475289406066598</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H11">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I11">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J11">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N11">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O11">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P11">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q11">
-        <v>0.5506219566962191</v>
+        <v>0.5739835682204446</v>
       </c>
       <c r="R11">
-        <v>0.5506219566962191</v>
+        <v>5.165852113984</v>
       </c>
       <c r="S11">
-        <v>0.001475191159922146</v>
+        <v>0.001149467679749243</v>
       </c>
       <c r="T11">
-        <v>0.001475191159922146</v>
+        <v>0.001149467679749243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H12">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I12">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J12">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N12">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O12">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P12">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q12">
-        <v>0.319917154815791</v>
+        <v>0.3572306973853334</v>
       </c>
       <c r="R12">
-        <v>0.319917154815791</v>
+        <v>3.215076276468</v>
       </c>
       <c r="S12">
-        <v>0.000857101597479649</v>
+        <v>0.0007153952893317288</v>
       </c>
       <c r="T12">
-        <v>0.000857101597479649</v>
+        <v>0.0007153952893317289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H13">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I13">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J13">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.5123225038424</v>
+        <v>43.864011</v>
       </c>
       <c r="N13">
-        <v>32.5123225038424</v>
+        <v>131.592033</v>
       </c>
       <c r="O13">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="P13">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="Q13">
-        <v>14.6696457004529</v>
+        <v>20.53321143188401</v>
       </c>
       <c r="R13">
-        <v>14.6696457004529</v>
+        <v>184.798902886956</v>
       </c>
       <c r="S13">
-        <v>0.03930197732459336</v>
+        <v>0.04112010205376408</v>
       </c>
       <c r="T13">
-        <v>0.03930197732459336</v>
+        <v>0.04112010205376408</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H14">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I14">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J14">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N14">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O14">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P14">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q14">
-        <v>8.306111099920376</v>
+        <v>0.1330647350826667</v>
       </c>
       <c r="R14">
-        <v>8.306111099920376</v>
+        <v>1.197582615744</v>
       </c>
       <c r="S14">
-        <v>0.02225320207253167</v>
+        <v>0.0002664773362173619</v>
       </c>
       <c r="T14">
-        <v>0.02225320207253167</v>
+        <v>0.000266477336217362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H15">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I15">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J15">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N15">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O15">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P15">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q15">
-        <v>170.9785596766643</v>
+        <v>1.431627634622222</v>
       </c>
       <c r="R15">
-        <v>170.9785596766643</v>
+        <v>12.8846487116</v>
       </c>
       <c r="S15">
-        <v>0.4580748310231127</v>
+        <v>0.002866997918661825</v>
       </c>
       <c r="T15">
-        <v>0.4580748310231127</v>
+        <v>0.002866997918661826</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H16">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I16">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J16">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N16">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O16">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P16">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q16">
-        <v>0.4458941650806602</v>
+        <v>0.006000540940444444</v>
       </c>
       <c r="R16">
-        <v>0.4458941650806602</v>
+        <v>0.054004868464</v>
       </c>
       <c r="S16">
-        <v>0.001194611153057879</v>
+        <v>1.201676886576652E-05</v>
       </c>
       <c r="T16">
-        <v>0.001194611153057879</v>
+        <v>1.201676886576653E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H17">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I17">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J17">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N17">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O17">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P17">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q17">
-        <v>3.34855846594338</v>
+        <v>0.02786513712355556</v>
       </c>
       <c r="R17">
-        <v>3.34855846594338</v>
+        <v>0.250786234112</v>
       </c>
       <c r="S17">
-        <v>0.008971243858637894</v>
+        <v>5.580312101026279E-05</v>
       </c>
       <c r="T17">
-        <v>0.008971243858637894</v>
+        <v>5.580312101026279E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H18">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I18">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J18">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N18">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O18">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P18">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q18">
-        <v>1.945547728584235</v>
+        <v>0.01734245180266666</v>
       </c>
       <c r="R18">
-        <v>1.945547728584235</v>
+        <v>0.156082066224</v>
       </c>
       <c r="S18">
-        <v>0.005212387147862135</v>
+        <v>3.473024131436151E-05</v>
       </c>
       <c r="T18">
-        <v>0.005212387147862135</v>
+        <v>3.473024131436152E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.068176</v>
+      </c>
+      <c r="I19">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J19">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.864011</v>
+      </c>
+      <c r="N19">
+        <v>131.592033</v>
+      </c>
+      <c r="O19">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P19">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q19">
+        <v>0.9968242713120001</v>
+      </c>
+      <c r="R19">
+        <v>8.971418441808002</v>
+      </c>
+      <c r="S19">
+        <v>0.001996254502224132</v>
+      </c>
+      <c r="T19">
+        <v>0.001996254502224132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.31118</v>
+      </c>
+      <c r="I20">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J20">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.855348</v>
+      </c>
+      <c r="N20">
+        <v>17.566044</v>
+      </c>
+      <c r="O20">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="P20">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="Q20">
+        <v>0.6073557302133334</v>
+      </c>
+      <c r="R20">
+        <v>5.466201571920001</v>
+      </c>
+      <c r="S20">
+        <v>0.001216299247302844</v>
+      </c>
+      <c r="T20">
+        <v>0.001216299247302844</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.31118</v>
+      </c>
+      <c r="I21">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J21">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N21">
+        <v>188.990975</v>
+      </c>
+      <c r="O21">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="P21">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="Q21">
+        <v>6.534467955611111</v>
+      </c>
+      <c r="R21">
+        <v>58.8102116005</v>
+      </c>
+      <c r="S21">
+        <v>0.01308601872109227</v>
+      </c>
+      <c r="T21">
+        <v>0.01308601872109228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.31118</v>
+      </c>
+      <c r="I22">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J22">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2640463333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.792139</v>
+      </c>
+      <c r="O22">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="P22">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="Q22">
+        <v>0.02738864600222223</v>
+      </c>
+      <c r="R22">
+        <v>0.24649781402</v>
+      </c>
+      <c r="S22">
+        <v>5.484889309506612E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.484889309506612E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.31118</v>
+      </c>
+      <c r="I23">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J23">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.226170666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.678512</v>
+      </c>
+      <c r="O23">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="P23">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="Q23">
+        <v>0.1271865960177778</v>
+      </c>
+      <c r="R23">
+        <v>1.14467936416</v>
+      </c>
+      <c r="S23">
+        <v>0.0002547056910932524</v>
+      </c>
+      <c r="T23">
+        <v>0.0002547056910932524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.31118</v>
+      </c>
+      <c r="I24">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J24">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.763133</v>
+      </c>
+      <c r="N24">
+        <v>2.289399</v>
+      </c>
+      <c r="O24">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="P24">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="Q24">
+        <v>0.07915724231333333</v>
+      </c>
+      <c r="R24">
+        <v>0.71241518082</v>
+      </c>
+      <c r="S24">
+        <v>0.000158521422380354</v>
+      </c>
+      <c r="T24">
+        <v>0.0001585214223803541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.31118</v>
+      </c>
+      <c r="I25">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J25">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>43.864011</v>
+      </c>
+      <c r="N25">
+        <v>131.592033</v>
+      </c>
+      <c r="O25">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P25">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q25">
+        <v>4.549867647660001</v>
+      </c>
+      <c r="R25">
+        <v>40.94880882894001</v>
+      </c>
+      <c r="S25">
+        <v>0.009111629840443929</v>
+      </c>
+      <c r="T25">
+        <v>0.009111629840443929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.157754</v>
+      </c>
+      <c r="H26">
+        <v>9.473262</v>
+      </c>
+      <c r="I26">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J26">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.855348</v>
+      </c>
+      <c r="N26">
+        <v>17.566044</v>
+      </c>
+      <c r="O26">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="P26">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="Q26">
+        <v>18.489748568392</v>
+      </c>
+      <c r="R26">
+        <v>166.407737115528</v>
+      </c>
+      <c r="S26">
+        <v>0.03702783417990435</v>
+      </c>
+      <c r="T26">
+        <v>0.03702783417990435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.157754</v>
+      </c>
+      <c r="H27">
+        <v>9.473262</v>
+      </c>
+      <c r="I27">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J27">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N27">
+        <v>188.990975</v>
+      </c>
+      <c r="O27">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="P27">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="Q27">
+        <v>198.9290024233833</v>
+      </c>
+      <c r="R27">
+        <v>1790.36102181045</v>
+      </c>
+      <c r="S27">
+        <v>0.3983780573359857</v>
+      </c>
+      <c r="T27">
+        <v>0.3983780573359858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.74394872368521</v>
-      </c>
-      <c r="H19">
-        <v>2.74394872368521</v>
-      </c>
-      <c r="I19">
-        <v>0.7347177554515669</v>
-      </c>
-      <c r="J19">
-        <v>0.7347177554515669</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>32.5123225038424</v>
-      </c>
-      <c r="N19">
-        <v>32.5123225038424</v>
-      </c>
-      <c r="O19">
-        <v>0.3253106086288401</v>
-      </c>
-      <c r="P19">
-        <v>0.3253106086288401</v>
-      </c>
-      <c r="Q19">
-        <v>89.21214583846029</v>
-      </c>
-      <c r="R19">
-        <v>89.21214583846029</v>
-      </c>
-      <c r="S19">
-        <v>0.2390114801963645</v>
-      </c>
-      <c r="T19">
-        <v>0.2390114801963645</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.157754</v>
+      </c>
+      <c r="H28">
+        <v>9.473262</v>
+      </c>
+      <c r="I28">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J28">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2640463333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.792139</v>
+      </c>
+      <c r="O28">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="P28">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="Q28">
+        <v>0.8337933652686667</v>
+      </c>
+      <c r="R28">
+        <v>7.504140287418</v>
+      </c>
+      <c r="S28">
+        <v>0.001669766484669812</v>
+      </c>
+      <c r="T28">
+        <v>0.001669766484669813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.157754</v>
+      </c>
+      <c r="H29">
+        <v>9.473262</v>
+      </c>
+      <c r="I29">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J29">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.226170666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.678512</v>
+      </c>
+      <c r="O29">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="P29">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="Q29">
+        <v>3.871945327349334</v>
+      </c>
+      <c r="R29">
+        <v>34.847507946144</v>
+      </c>
+      <c r="S29">
+        <v>0.007754012933406538</v>
+      </c>
+      <c r="T29">
+        <v>0.007754012933406538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.157754</v>
+      </c>
+      <c r="H30">
+        <v>9.473262</v>
+      </c>
+      <c r="I30">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J30">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.763133</v>
+      </c>
+      <c r="N30">
+        <v>2.289399</v>
+      </c>
+      <c r="O30">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="P30">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="Q30">
+        <v>2.409786283282</v>
+      </c>
+      <c r="R30">
+        <v>21.688076549538</v>
+      </c>
+      <c r="S30">
+        <v>0.004825872378757495</v>
+      </c>
+      <c r="T30">
+        <v>0.004825872378757496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.157754</v>
+      </c>
+      <c r="H31">
+        <v>9.473262</v>
+      </c>
+      <c r="I31">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J31">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>43.864011</v>
+      </c>
+      <c r="N31">
+        <v>131.592033</v>
+      </c>
+      <c r="O31">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P31">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q31">
+        <v>138.511756191294</v>
+      </c>
+      <c r="R31">
+        <v>1246.605805721646</v>
+      </c>
+      <c r="S31">
+        <v>0.27738561837375</v>
+      </c>
+      <c r="T31">
+        <v>0.27738561837375</v>
       </c>
     </row>
   </sheetData>
